--- a/Documentación_hr_raw_data.xlsx
+++ b/Documentación_hr_raw_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ADALAB\Ejercicios-de-clase\Prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64a403cf1f425bbd/Desktop/ADALAB/Pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59889B84-EE3C-473F-A69E-0782727A715A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E2B8BA-28A4-4A5B-AD16-FD5160CE36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE399405-6E31-4F2C-B547-D5D6098F5979}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>Age: Edad del empleado.</t>
   </si>
@@ -308,14 +308,50 @@
     <t>Descripción de las Columnas en web Adalab:</t>
   </si>
   <si>
-    <t>No cambios necesario</t>
+    <t>Detalles de los datos</t>
+  </si>
+  <si>
+    <t>Categoría del 1 al 5</t>
+  </si>
+  <si>
+    <t>No cambios necesarios</t>
+  </si>
+  <si>
+    <t>Analizar qué es 1 y qué es 5</t>
+  </si>
+  <si>
+    <t>Categoría del 1 al 4</t>
+  </si>
+  <si>
+    <t>Analizar qué es 1 y qué es 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 es&lt; que 4</t>
+  </si>
+  <si>
+    <t>Categoría del 0 al 3</t>
+  </si>
+  <si>
+    <t>necesario modificar a int, cambiar (",0" por ""), pensar en los NAN</t>
+  </si>
+  <si>
+    <t>necesario modificar a int, cambiar (",0" por "") y ("$" por ""), pensar en los NAN</t>
+  </si>
+  <si>
+    <t>necesario modificar a str, quitar espacios delante y detrás y modificar todo a minúculas, pensar en los NAN</t>
+  </si>
+  <si>
+    <t>No tiene datos: valorar si eliminar o solicitar información a la empresa para conseguir los datos</t>
+  </si>
+  <si>
+    <t>necesario cambiar ("1" y "True" por "Yes") y ("0" y "False" por "No")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,10 +389,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,739 +727,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24DD9FD-2030-4C4B-8094-0D97555D8160}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="66" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.59765625" style="2"/>
+    <col min="7" max="7" width="17.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>877</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>312</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>904</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>411</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>1003</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>1189</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
+      <c r="D22" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>740</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>982</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>1478</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="D27" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>1327</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>1129</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>1564</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>35</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
+      <c r="D36" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="2">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>1189</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="D38" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>1393</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>312</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="1">
-        <v>1678</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>57</v>
+      <c r="D42" s="2">
+        <v>1678</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentación_hr_raw_data.xlsx
+++ b/Documentación_hr_raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64a403cf1f425bbd/Desktop/ADALAB/Modulo-3/proyecto-da-promo-56-modulo-3-team-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA77D19A-99C0-4D6E-B958-B3B7D0B1AC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB74151F-F128-49EB-A545-D0B10B02BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE399405-6E31-4F2C-B547-D5D6098F5979}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="171">
   <si>
     <t>Age: Edad del empleado.</t>
   </si>
@@ -431,9 +431,6 @@
     <t xml:space="preserve"> SaLeS eXECUTivE  -  Sales '</t>
   </si>
   <si>
-    <t>* siempre salen estos 11: 'manager  -  research &amp; development', 'healthcare representative  -  research &amp; development', 'sales executive  -  sales', 'laboratory technician  -  research &amp; development', 'manufacturing director  -  research &amp; development', 'research scientist  -  research &amp; development', 'research director  -  research &amp; development', 'human resources  -  human resources', 'manager  -  sales', 'sales representative  -  sales', 'manager  -  human resources'</t>
-  </si>
-  <si>
     <t>* valorar si eliminar</t>
   </si>
   <si>
@@ -537,13 +534,28 @@
   </si>
   <si>
     <t>*Analizar qué es 0 y qué es 6</t>
+  </si>
+  <si>
+    <t>* valorar si eliminar * siempre salen estos 11: 'manager  -  research &amp; development', 'healthcare representative  -  research &amp; development', 'sales executive  -  sales', 'laboratory technician  -  research &amp; development', 'manufacturing director  -  research &amp; development', 'research scientist  -  research &amp; development', 'research director  -  research &amp; development', 'human resources  -  human resources', 'manager  -  sales', 'sales representative  -  sales', 'manager  -  human resources'</t>
+  </si>
+  <si>
+    <t>* LOS NULOS SON NON-TRAVEL</t>
+  </si>
+  <si>
+    <t>*LOS NULOS SON FULL TIME</t>
+  </si>
+  <si>
+    <t>* NULOS NO MODIFICABLES</t>
+  </si>
+  <si>
+    <t>* NULOS REV ZARA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +566,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1C1D1F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -708,6 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,7 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,21 +1080,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24DD9FD-2030-4C4B-8094-0D97555D8160}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
@@ -1087,31 +1106,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1322,7 +1341,10 @@
         <v>97</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1651,6 +1673,9 @@
       <c r="Q11" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="R11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1734,25 +1759,25 @@
         <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>97</v>
@@ -1790,31 +1815,31 @@
         <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1843,25 +1868,25 @@
         <v>94</v>
       </c>
       <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>94</v>
@@ -1904,13 +1929,13 @@
       <c r="K16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="19" t="s">
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" t="s">
         <v>94</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1960,13 +1985,13 @@
       <c r="K17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="19" t="s">
+      <c r="L17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" t="s">
         <v>94</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -2011,18 +2036,18 @@
         <v>107</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="19" t="s">
+      <c r="L18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
         <v>97</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -2069,13 +2094,13 @@
       <c r="K19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="19" t="s">
+      <c r="L19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="s">
         <v>94</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -2117,31 +2142,31 @@
         <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" s="19" t="s">
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" t="s">
         <v>97</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -2170,25 +2195,25 @@
         <v>94</v>
       </c>
       <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N21" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>94</v>
@@ -2226,13 +2251,13 @@
         <v>125</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>149</v>
+      <c r="L22" t="s">
+        <v>148</v>
       </c>
       <c r="M22" t="s">
         <v>97</v>
@@ -2284,13 +2309,13 @@
       <c r="K23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="19" t="s">
+      <c r="L23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" t="s">
         <v>94</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -2300,7 +2325,7 @@
         <v>97</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2327,34 +2352,34 @@
         <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="19" t="s">
+      <c r="L24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" t="s">
         <v>94</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="R24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2391,17 +2416,17 @@
       <c r="K25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="19" t="s">
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" t="s">
         <v>94</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>97</v>
@@ -2444,13 +2469,13 @@
       <c r="K26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="19" t="s">
+      <c r="L26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" t="s">
         <v>94</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2492,7 +2517,7 @@
         <v>93</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>117</v>
@@ -2507,7 +2532,7 @@
         <v>94</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>97</v>
@@ -2553,13 +2578,13 @@
       <c r="K28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N28" s="19" t="s">
+      <c r="L28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" t="s">
         <v>94</v>
       </c>
       <c r="O28" s="3" t="s">
@@ -2609,7 +2634,7 @@
       <c r="K29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" t="s">
         <v>94</v>
       </c>
       <c r="M29" t="s">
@@ -2625,7 +2650,10 @@
         <v>97</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -2662,13 +2690,13 @@
       <c r="K30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="19" t="s">
+      <c r="L30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" t="s">
         <v>94</v>
       </c>
       <c r="O30" s="3" t="s">
@@ -2713,7 +2741,7 @@
         <v>93</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>117</v>
@@ -2728,7 +2756,7 @@
         <v>94</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>94</v>
@@ -2771,13 +2799,13 @@
       <c r="K32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="19" t="s">
+      <c r="L32" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" t="s">
         <v>94</v>
       </c>
       <c r="O32" s="3" t="s">
@@ -2787,10 +2815,10 @@
         <v>97</v>
       </c>
       <c r="Q32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R32" t="s">
         <v>165</v>
-      </c>
-      <c r="R32" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,7 +2850,7 @@
         <v>93</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>117</v>
@@ -2837,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>97</v>
@@ -2933,8 +2961,8 @@
       <c r="J35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>117</v>
+      <c r="K35" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>57</v>
@@ -2953,6 +2981,9 @@
       </c>
       <c r="Q35" s="3" t="s">
         <v>94</v>
+      </c>
+      <c r="R35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -3090,10 +3121,10 @@
       <c r="J38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L38" s="13" t="s">
+      <c r="K38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" t="s">
         <v>57</v>
       </c>
       <c r="M38" t="s">
@@ -3110,6 +3141,9 @@
       </c>
       <c r="Q38" s="3" t="s">
         <v>94</v>
+      </c>
+      <c r="R38" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -3217,6 +3251,9 @@
       <c r="Q40" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="R40" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
@@ -3271,7 +3308,7 @@
         <v>94</v>
       </c>
       <c r="R41" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -3300,10 +3337,10 @@
         <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>117</v>
@@ -3327,7 +3364,7 @@
         <v>94</v>
       </c>
       <c r="R42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -3356,25 +3393,25 @@
         <v>94</v>
       </c>
       <c r="I43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>97</v>
